--- a/exp/pilot/pilot_sti.xlsx
+++ b/exp/pilot/pilot_sti.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabmac/Documents/RU/QP/exp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabmac/Documents/RU/QP/exp/pilot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BC70362-89DE-5747-A3A6-CF3CC78A6A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455CD2E6-6D57-1844-B78A-A3C0BCC5D6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21660" yWindow="12640" windowWidth="28040" windowHeight="17440" xr2:uid="{ED81DF2C-DF02-6D49-909E-07656C69D481}"/>
+    <workbookView xWindow="5960" yWindow="22340" windowWidth="28040" windowHeight="17440" xr2:uid="{ED81DF2C-DF02-6D49-909E-07656C69D481}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,15 +38,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
-    <t>What is the dog doing?</t>
-  </si>
-  <si>
     <t>¿Por qué le regalaste tus gafas?</t>
   </si>
   <si>
-    <t>Why do you like my gatos?</t>
-  </si>
-  <si>
     <t>Where can we find your abuela?</t>
   </si>
   <si>
@@ -123,6 +120,12 @@
   </si>
   <si>
     <t>Everything in my fridge están mal.</t>
+  </si>
+  <si>
+    <t>What is the boy doing?</t>
+  </si>
+  <si>
+    <t>Why do you like my cerveza?</t>
   </si>
 </sst>
 </file>
@@ -507,132 +510,132 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.83203125" customWidth="1"/>
+    <col min="1" max="1" width="82.5" customWidth="1"/>
     <col min="2" max="2" width="63.5" customWidth="1"/>
     <col min="3" max="4" width="54.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
